--- a/July/Others/RBM 1 to 15 June'19 by dealer.xlsx
+++ b/July/Others/RBM 1 to 15 June'19 by dealer.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="106">
   <si>
     <t>DealerName</t>
   </si>
@@ -333,13 +333,13 @@
     <t>Total=</t>
   </si>
   <si>
-    <t>Distributor: Symphony (Mobile Handset) Edison-Group</t>
-  </si>
-  <si>
-    <t>Madrasha Market, Bagha Bajar, Bagha, Rajshahi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Date:</t>
+    <t xml:space="preserve">Tulip-2 </t>
+  </si>
+  <si>
+    <t>Distributor: Synphony (Mobile Handset) Edison-Group</t>
+  </si>
+  <si>
+    <t>Madrasha Market, Bagha Bazar, Bagha Rajshahi.</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,14 +383,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -406,7 +405,14 @@
     </font>
     <font>
       <b/>
-      <sz val="25"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Bauhaus 93"/>
       <family val="5"/>
@@ -420,7 +426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -438,15 +444,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -479,16 +476,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -515,18 +523,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -540,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,35 +547,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,38 +608,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,106 +897,104 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39">
-      <c r="A1" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:8" ht="37.5">
+      <c r="A1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5">
+      <c r="A3" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" hidden="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="3" t="s">
@@ -1016,10 +1006,10 @@
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="3"/>
@@ -1037,13 +1027,13 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="7">
         <v>1912021212</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G8" s="4">
@@ -1060,13 +1050,13 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="7">
         <v>1723656320</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="4">
@@ -1083,13 +1073,13 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="7">
         <v>1729438268</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G10" s="4">
@@ -1106,10 +1096,10 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F11" s="3"/>
@@ -1127,10 +1117,10 @@
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="3"/>
@@ -1148,13 +1138,13 @@
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="7">
         <v>1701289833</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="4">
@@ -1171,13 +1161,13 @@
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="7">
         <v>1789726772</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="4">
@@ -1194,13 +1184,13 @@
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="7">
         <v>1740215185</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="4">
@@ -1217,13 +1207,13 @@
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="7">
         <v>1843464120</v>
       </c>
-      <c r="F16" s="8" t="e">
+      <c r="F16" s="7" t="e">
         <v>#N/A</v>
       </c>
       <c r="G16" s="4">
@@ -1240,13 +1230,13 @@
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="7">
         <v>1860372563</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G17" s="4">
@@ -1263,13 +1253,13 @@
       <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="7">
         <v>1843819238</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G18" s="4">
@@ -1286,13 +1276,13 @@
       <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="7">
         <v>1755803803</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="4">
@@ -1309,10 +1299,10 @@
       <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="3"/>
@@ -1330,13 +1320,13 @@
       <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="7">
         <v>1989540346</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G21" s="4">
@@ -1353,10 +1343,10 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="3"/>
@@ -1374,13 +1364,13 @@
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="7">
         <v>1745618915</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G23" s="4">
@@ -1397,10 +1387,10 @@
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="3"/>
@@ -1418,10 +1408,10 @@
       <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F25" s="3"/>
@@ -1439,10 +1429,10 @@
       <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="3"/>
@@ -1460,13 +1450,13 @@
       <c r="C27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="D27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="7">
         <v>1778683619</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G27" s="4">
@@ -1483,13 +1473,13 @@
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="7">
         <v>1741920950</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="4">
@@ -1506,13 +1496,13 @@
       <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="D29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="7">
         <v>1718103210</v>
       </c>
-      <c r="F29" s="8" t="e">
+      <c r="F29" s="7" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" s="4">
@@ -1529,13 +1519,13 @@
       <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="D30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="7">
         <v>1716037987</v>
       </c>
-      <c r="F30" s="8" t="e">
+      <c r="F30" s="7" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" s="4">
@@ -1552,10 +1542,10 @@
       <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="3"/>
@@ -1573,13 +1563,13 @@
       <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="D32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="7">
         <v>1790384477</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="4">
@@ -1596,13 +1586,13 @@
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="D33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="7">
         <v>1739410605</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="4">
@@ -1619,13 +1609,13 @@
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="7">
         <v>1799972768</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G34" s="4">
@@ -1642,13 +1632,13 @@
       <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="D35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="7">
         <v>1711335323</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="4">
@@ -1665,13 +1655,13 @@
       <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="D36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="7">
         <v>1747107167</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G36" s="4">
@@ -1688,10 +1678,10 @@
       <c r="C37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="3"/>
@@ -1709,13 +1699,13 @@
       <c r="C38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="D38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="7">
         <v>1724543367</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="4">
@@ -1732,13 +1722,13 @@
       <c r="C39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="D39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="7">
         <v>1712001864</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G39" s="4">
@@ -1755,13 +1745,13 @@
       <c r="C40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="D40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="7">
         <v>1743124254</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G40" s="4">
@@ -1778,13 +1768,13 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="D41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="7">
         <v>19261516177</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G41" s="4">
@@ -1792,199 +1782,199 @@
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="15">
+      <c r="D42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="10">
         <v>1822782192</v>
       </c>
-      <c r="F42" s="8" t="e">
+      <c r="F42" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8" ht="45" customHeight="1">
+      <c r="A43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="D43" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="14">
         <v>1711427268</v>
       </c>
-      <c r="F43" s="12" t="e">
+      <c r="F43" s="16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="15">
         <v>675</v>
       </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="9">
+      <c r="D44" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="14">
         <v>1718281872</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="26">
+      <c r="F44" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="15">
         <v>590</v>
       </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A45" s="9" t="s">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="D45" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="14">
         <v>1977011482</v>
       </c>
-      <c r="F45" s="12" t="e">
+      <c r="F45" s="16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="15">
         <v>170</v>
       </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="45" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="9">
+      <c r="D46" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="14">
         <v>1829687777</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="26">
+      <c r="F46" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="15">
         <v>160</v>
       </c>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" ht="45" customHeight="1">
+      <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="D47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="14">
         <v>1722360936</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="26">
+      <c r="F47" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="15">
         <v>160</v>
       </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" ht="45" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="9">
+      <c r="D48" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="14">
         <v>1722383337</v>
       </c>
-      <c r="F48" s="12" t="e">
+      <c r="F48" s="16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="15">
         <v>575</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" hidden="1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="19">
+      <c r="G49" s="13">
         <f>SUM(G7:G48)</f>
         <v>6840</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:8" ht="45" customHeight="1">
+      <c r="A50" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="G50" s="27">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="G50" s="17">
         <f>SUBTOTAL(9,G43:G49)</f>
         <v>2330</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
       <c r="G51" s="6"/>
@@ -2007,11 +1997,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="12">
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A5:A6"/>
@@ -2021,6 +2011,6 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>